--- a/src/main/resources/data/Data.xlsx
+++ b/src/main/resources/data/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8524A8BF-1F0B-4067-975D-FB3E0D1B5AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11460" windowHeight="4980" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="11730" windowHeight="11820" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="appData" sheetId="1" r:id="rId1"/>
@@ -14,13 +15,16 @@
     <sheet name="createTaskdetails" sheetId="5" r:id="rId5"/>
     <sheet name="projectDetails" sheetId="6" r:id="rId6"/>
     <sheet name="Userdetails" sheetId="7" r:id="rId7"/>
+    <sheet name="Flightdata" sheetId="8" r:id="rId8"/>
+    <sheet name="Date" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Users</t>
   </si>
@@ -129,11 +133,62 @@
   <si>
     <t>manish@gmail.com</t>
   </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>suganthini</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>ramu</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>sathish</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>suganthini.ramu07@gmail.com</t>
+  </si>
+  <si>
+    <t>mobileno</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>starting date</t>
+  </si>
+  <si>
+    <t>return date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,6 +241,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -448,7 +506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -492,14 +550,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -537,7 +595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -551,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -596,7 +654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -660,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -703,10 +761,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -741,8 +799,128 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27CC594-8EC8-46C4-AFD0-3CD94953B14F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>1234546789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5EC67CF8-336F-43E1-AA94-3C2874C232DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F122D347-608A-42B0-BE56-F9F28519C2FB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>